--- a/src/test/java/ExcelDb/ExcelDb.xlsx
+++ b/src/test/java/ExcelDb/ExcelDb.xlsx
@@ -1,43 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\IdeaProjects\TestMersysIo\src\test\java\ExcelDb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11CF0E9-D81F-43A3-9ED9-37402C0D01E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D5E5BF-ABC9-44CF-BF6D-34BC9AA871AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="US00" sheetId="12" r:id="rId1"/>
-    <sheet name="US01" sheetId="11" r:id="rId2"/>
-    <sheet name="US02" sheetId="10" r:id="rId3"/>
-    <sheet name="US03" sheetId="9" r:id="rId4"/>
-    <sheet name="US04" sheetId="8" r:id="rId5"/>
-    <sheet name="US05" sheetId="7" r:id="rId6"/>
-    <sheet name="US06" sheetId="6" r:id="rId7"/>
-    <sheet name="US07" sheetId="5" r:id="rId8"/>
-    <sheet name="US08" sheetId="4" r:id="rId9"/>
-    <sheet name="US09" sheetId="3" r:id="rId10"/>
-    <sheet name="US10" sheetId="2" r:id="rId11"/>
-    <sheet name="US11" sheetId="1" r:id="rId12"/>
-    <sheet name="US12" sheetId="13" r:id="rId13"/>
+    <sheet name="Sayfa1" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Shortname</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>83606687</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Cristal</t>
+  </si>
+  <si>
+    <t>92902084</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>98286331</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Trycia</t>
+  </si>
+  <si>
+    <t>10923733</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>26213439</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>71477916</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>82924263</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Marlin</t>
+  </si>
+  <si>
+    <t>48540131</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>09909649</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Ryann</t>
+  </si>
+  <si>
+    <t>66252276</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,161 +489,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52648D17-4F40-49DB-9E4F-30C54D8968A9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996E3072-DC24-41C7-B4F1-4E6A51AE2C1E}">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681967BB-91D2-433A-A2FB-0AC0C2E04EA4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F51D4-6154-4CE5-B656-FE5CE8C96355}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7E484E-30BC-410E-AF34-469C62DEAA8E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996E3072-DC24-41C7-B4F1-4E6A51AE2C1E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77036D44-D8FF-45FA-AFB0-A402B948B84E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F673C33-9D50-41F8-A14A-70560F6B91E9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7C541E-7247-41CB-A90A-77BA9B9DAD93}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F42BE54-AD86-4ECE-B596-8D225EF47508}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363D67AB-6CB0-4E99-89BC-6C418C4830E0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6DD8F-E060-40D1-8629-5825B0CCFDD3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5C7BC2-BCE4-4981-968D-9A7BA3F762F5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/ExcelDb/ExcelDb.xlsx
+++ b/src/test/java/ExcelDb/ExcelDb.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,456 @@
   </si>
   <si>
     <t>64</t>
+  </si>
+  <si>
+    <t>Moises</t>
+  </si>
+  <si>
+    <t>02226835</t>
+  </si>
+  <si>
+    <t>Planner</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>01916430</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>71291277</t>
+  </si>
+  <si>
+    <t>Liaison</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>94027426</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Katelin</t>
+  </si>
+  <si>
+    <t>36975976</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Ericka</t>
+  </si>
+  <si>
+    <t>45694394</t>
+  </si>
+  <si>
+    <t>Orchestrator</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Kari</t>
+  </si>
+  <si>
+    <t>87119565</t>
+  </si>
+  <si>
+    <t>Strategist</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Hiram</t>
+  </si>
+  <si>
+    <t>18829044</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>29839292</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Aubrey</t>
+  </si>
+  <si>
+    <t>27491805</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>86048255</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Raoul</t>
+  </si>
+  <si>
+    <t>89086421</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Tania</t>
+  </si>
+  <si>
+    <t>42965169</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>35851134</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Archibald</t>
+  </si>
+  <si>
+    <t>05124367</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Estefania</t>
+  </si>
+  <si>
+    <t>60050588</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Lelah</t>
+  </si>
+  <si>
+    <t>53796271</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Charlene</t>
+  </si>
+  <si>
+    <t>05144280</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>28973126</t>
+  </si>
+  <si>
+    <t>Facilitator</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Kadin</t>
+  </si>
+  <si>
+    <t>54745667</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Kelsie</t>
+  </si>
+  <si>
+    <t>24555210</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>94996869</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>37757472</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>75824396</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Litzy</t>
+  </si>
+  <si>
+    <t>55325196</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Leola</t>
+  </si>
+  <si>
+    <t>61527805</t>
+  </si>
+  <si>
+    <t>Sammie</t>
+  </si>
+  <si>
+    <t>95258003</t>
+  </si>
+  <si>
+    <t>Jacquelyn</t>
+  </si>
+  <si>
+    <t>28552901</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Darron</t>
+  </si>
+  <si>
+    <t>37742935</t>
+  </si>
+  <si>
+    <t>Hadley</t>
+  </si>
+  <si>
+    <t>07430923</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>93688857</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>99408763</t>
+  </si>
+  <si>
+    <t>Tomasa</t>
+  </si>
+  <si>
+    <t>51278410</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Heber</t>
+  </si>
+  <si>
+    <t>16311169</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Sibyl</t>
+  </si>
+  <si>
+    <t>31876650</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>97376330</t>
+  </si>
+  <si>
+    <t>Cleo</t>
+  </si>
+  <si>
+    <t>95140124</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>27409817</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Sabryna</t>
+  </si>
+  <si>
+    <t>56037609</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
+    <t>28366089</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Katelynn</t>
+  </si>
+  <si>
+    <t>54640351</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Hillard</t>
+  </si>
+  <si>
+    <t>53472700</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Dannie</t>
+  </si>
+  <si>
+    <t>10543368</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Lizeth</t>
+  </si>
+  <si>
+    <t>48795302</t>
+  </si>
+  <si>
+    <t>Ellie</t>
+  </si>
+  <si>
+    <t>25405262</t>
+  </si>
+  <si>
+    <t>Ashtyn</t>
+  </si>
+  <si>
+    <t>92679429</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>68481797</t>
+  </si>
+  <si>
+    <t>Althea</t>
+  </si>
+  <si>
+    <t>64106885</t>
+  </si>
+  <si>
+    <t>Octavia</t>
+  </si>
+  <si>
+    <t>28488774</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>40083674</t>
   </si>
 </sst>
 </file>
@@ -490,7 +940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996E3072-DC24-41C7-B4F1-4E6A51AE2C1E}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -520,323 +970,3723 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" t="s">
+        <v>86</v>
+      </c>
+      <c r="T15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19" t="s">
+        <v>86</v>
+      </c>
+      <c r="T19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" t="s">
+        <v>86</v>
+      </c>
+      <c r="T20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" t="s">
+        <v>86</v>
+      </c>
+      <c r="S22" t="s">
+        <v>86</v>
+      </c>
+      <c r="T22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" t="s">
+        <v>86</v>
+      </c>
+      <c r="T23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" t="s">
+        <v>86</v>
+      </c>
+      <c r="S24" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" t="s">
+        <v>86</v>
+      </c>
+      <c r="T26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>86</v>
+      </c>
+      <c r="R27" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" t="s">
+        <v>86</v>
+      </c>
+      <c r="T27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" t="s">
+        <v>86</v>
+      </c>
+      <c r="N28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S28" t="s">
+        <v>86</v>
+      </c>
+      <c r="T28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>86</v>
+      </c>
+      <c r="R29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" t="s">
+        <v>86</v>
+      </c>
+      <c r="N30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O30" t="s">
+        <v>86</v>
+      </c>
+      <c r="P30" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R30" t="s">
+        <v>86</v>
+      </c>
+      <c r="S30" t="s">
+        <v>86</v>
+      </c>
+      <c r="T30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" t="s">
+        <v>86</v>
+      </c>
+      <c r="N31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>86</v>
+      </c>
+      <c r="R31" t="s">
+        <v>86</v>
+      </c>
+      <c r="S31" t="s">
+        <v>86</v>
+      </c>
+      <c r="T31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32" t="s">
+        <v>86</v>
+      </c>
+      <c r="O32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" t="s">
+        <v>86</v>
+      </c>
+      <c r="S32" t="s">
+        <v>86</v>
+      </c>
+      <c r="T32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" t="s">
+        <v>86</v>
+      </c>
+      <c r="M33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N33" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>86</v>
+      </c>
+      <c r="R33" t="s">
+        <v>86</v>
+      </c>
+      <c r="S33" t="s">
+        <v>86</v>
+      </c>
+      <c r="T33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" t="s">
+        <v>86</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>86</v>
+      </c>
+      <c r="R34" t="s">
+        <v>86</v>
+      </c>
+      <c r="S34" t="s">
+        <v>86</v>
+      </c>
+      <c r="T34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>86</v>
+      </c>
+      <c r="R35" t="s">
+        <v>86</v>
+      </c>
+      <c r="S35" t="s">
+        <v>86</v>
+      </c>
+      <c r="T35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" t="s">
+        <v>86</v>
+      </c>
+      <c r="O36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P36" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>86</v>
+      </c>
+      <c r="R36" t="s">
+        <v>86</v>
+      </c>
+      <c r="S36" t="s">
+        <v>86</v>
+      </c>
+      <c r="T36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" t="s">
+        <v>86</v>
+      </c>
+      <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>86</v>
+      </c>
+      <c r="R37" t="s">
+        <v>86</v>
+      </c>
+      <c r="S37" t="s">
+        <v>86</v>
+      </c>
+      <c r="T37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>86</v>
+      </c>
+      <c r="R38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S38" t="s">
+        <v>86</v>
+      </c>
+      <c r="T38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M39" t="s">
+        <v>86</v>
+      </c>
+      <c r="N39" t="s">
+        <v>86</v>
+      </c>
+      <c r="O39" t="s">
+        <v>86</v>
+      </c>
+      <c r="P39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>86</v>
+      </c>
+      <c r="R39" t="s">
+        <v>86</v>
+      </c>
+      <c r="S39" t="s">
+        <v>86</v>
+      </c>
+      <c r="T39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" t="s">
+        <v>86</v>
+      </c>
+      <c r="N40" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>86</v>
+      </c>
+      <c r="R40" t="s">
+        <v>86</v>
+      </c>
+      <c r="S40" t="s">
+        <v>86</v>
+      </c>
+      <c r="T40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41" t="s">
+        <v>86</v>
+      </c>
+      <c r="O41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>86</v>
+      </c>
+      <c r="R41" t="s">
+        <v>86</v>
+      </c>
+      <c r="S41" t="s">
+        <v>86</v>
+      </c>
+      <c r="T41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L42" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" t="s">
+        <v>86</v>
+      </c>
+      <c r="N42" t="s">
+        <v>86</v>
+      </c>
+      <c r="O42" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>86</v>
+      </c>
+      <c r="R42" t="s">
+        <v>86</v>
+      </c>
+      <c r="S42" t="s">
+        <v>86</v>
+      </c>
+      <c r="T42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" t="s">
+        <v>86</v>
+      </c>
+      <c r="K43" t="s">
+        <v>86</v>
+      </c>
+      <c r="L43" t="s">
+        <v>86</v>
+      </c>
+      <c r="M43" t="s">
+        <v>86</v>
+      </c>
+      <c r="N43" t="s">
+        <v>86</v>
+      </c>
+      <c r="O43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>86</v>
+      </c>
+      <c r="R43" t="s">
+        <v>86</v>
+      </c>
+      <c r="S43" t="s">
+        <v>86</v>
+      </c>
+      <c r="T43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L44" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" t="s">
+        <v>86</v>
+      </c>
+      <c r="N44" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" t="s">
+        <v>86</v>
+      </c>
+      <c r="P44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R44" t="s">
+        <v>86</v>
+      </c>
+      <c r="S44" t="s">
+        <v>86</v>
+      </c>
+      <c r="T44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" t="s">
+        <v>86</v>
+      </c>
+      <c r="J45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K45" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" t="s">
+        <v>86</v>
+      </c>
+      <c r="M45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N45" t="s">
+        <v>86</v>
+      </c>
+      <c r="O45" t="s">
+        <v>86</v>
+      </c>
+      <c r="P45" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>86</v>
+      </c>
+      <c r="R45" t="s">
+        <v>86</v>
+      </c>
+      <c r="S45" t="s">
+        <v>86</v>
+      </c>
+      <c r="T45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J46" t="s">
+        <v>86</v>
+      </c>
+      <c r="K46" t="s">
+        <v>86</v>
+      </c>
+      <c r="L46" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N46" t="s">
+        <v>86</v>
+      </c>
+      <c r="O46" t="s">
+        <v>86</v>
+      </c>
+      <c r="P46" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>86</v>
+      </c>
+      <c r="R46" t="s">
+        <v>86</v>
+      </c>
+      <c r="S46" t="s">
+        <v>86</v>
+      </c>
+      <c r="T46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" t="s">
+        <v>86</v>
+      </c>
+      <c r="L47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M47" t="s">
+        <v>86</v>
+      </c>
+      <c r="N47" t="s">
+        <v>86</v>
+      </c>
+      <c r="O47" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>86</v>
+      </c>
+      <c r="R47" t="s">
+        <v>86</v>
+      </c>
+      <c r="S47" t="s">
+        <v>86</v>
+      </c>
+      <c r="T47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" t="s">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L48" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" t="s">
+        <v>86</v>
+      </c>
+      <c r="O48" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>86</v>
+      </c>
+      <c r="R48" t="s">
+        <v>86</v>
+      </c>
+      <c r="S48" t="s">
+        <v>86</v>
+      </c>
+      <c r="T48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49" t="s">
+        <v>86</v>
+      </c>
+      <c r="L49" t="s">
+        <v>86</v>
+      </c>
+      <c r="M49" t="s">
+        <v>86</v>
+      </c>
+      <c r="N49" t="s">
+        <v>86</v>
+      </c>
+      <c r="O49" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>86</v>
+      </c>
+      <c r="R49" t="s">
+        <v>86</v>
+      </c>
+      <c r="S49" t="s">
+        <v>86</v>
+      </c>
+      <c r="T49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
+        <v>86</v>
+      </c>
+      <c r="K50" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50" t="s">
+        <v>86</v>
+      </c>
+      <c r="M50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N50" t="s">
+        <v>86</v>
+      </c>
+      <c r="O50" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>86</v>
+      </c>
+      <c r="R50" t="s">
+        <v>86</v>
+      </c>
+      <c r="S50" t="s">
+        <v>86</v>
+      </c>
+      <c r="T50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+      <c r="K51" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51" t="s">
+        <v>86</v>
+      </c>
+      <c r="M51" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" t="s">
+        <v>86</v>
+      </c>
+      <c r="O51" t="s">
+        <v>86</v>
+      </c>
+      <c r="P51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>86</v>
+      </c>
+      <c r="R51" t="s">
+        <v>86</v>
+      </c>
+      <c r="S51" t="s">
+        <v>86</v>
+      </c>
+      <c r="T51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+      <c r="K52" t="s">
+        <v>86</v>
+      </c>
+      <c r="L52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" t="s">
+        <v>86</v>
+      </c>
+      <c r="N52" t="s">
+        <v>86</v>
+      </c>
+      <c r="O52" t="s">
+        <v>86</v>
+      </c>
+      <c r="P52" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>86</v>
+      </c>
+      <c r="R52" t="s">
+        <v>86</v>
+      </c>
+      <c r="S52" t="s">
+        <v>86</v>
+      </c>
+      <c r="T52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+      <c r="K53" t="s">
+        <v>86</v>
+      </c>
+      <c r="L53" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" t="s">
+        <v>86</v>
+      </c>
+      <c r="N53" t="s">
+        <v>86</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>86</v>
+      </c>
+      <c r="R53" t="s">
+        <v>86</v>
+      </c>
+      <c r="S53" t="s">
+        <v>86</v>
+      </c>
+      <c r="T53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+      <c r="K54" t="s">
+        <v>86</v>
+      </c>
+      <c r="L54" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" t="s">
+        <v>86</v>
+      </c>
+      <c r="N54" t="s">
+        <v>86</v>
+      </c>
+      <c r="O54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P54" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>86</v>
+      </c>
+      <c r="R54" t="s">
+        <v>86</v>
+      </c>
+      <c r="S54" t="s">
+        <v>86</v>
+      </c>
+      <c r="T54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+      <c r="K55" t="s">
+        <v>86</v>
+      </c>
+      <c r="L55" t="s">
+        <v>86</v>
+      </c>
+      <c r="M55" t="s">
+        <v>86</v>
+      </c>
+      <c r="N55" t="s">
+        <v>86</v>
+      </c>
+      <c r="O55" t="s">
+        <v>86</v>
+      </c>
+      <c r="P55" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>86</v>
+      </c>
+      <c r="R55" t="s">
+        <v>86</v>
+      </c>
+      <c r="S55" t="s">
+        <v>86</v>
+      </c>
+      <c r="T55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+      <c r="K56" t="s">
+        <v>86</v>
+      </c>
+      <c r="L56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" t="s">
+        <v>86</v>
+      </c>
+      <c r="N56" t="s">
+        <v>86</v>
+      </c>
+      <c r="O56" t="s">
+        <v>86</v>
+      </c>
+      <c r="P56" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>86</v>
+      </c>
+      <c r="R56" t="s">
+        <v>86</v>
+      </c>
+      <c r="S56" t="s">
+        <v>86</v>
+      </c>
+      <c r="T56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+      <c r="K57" t="s">
+        <v>86</v>
+      </c>
+      <c r="L57" t="s">
+        <v>86</v>
+      </c>
+      <c r="M57" t="s">
+        <v>86</v>
+      </c>
+      <c r="N57" t="s">
+        <v>86</v>
+      </c>
+      <c r="O57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>86</v>
+      </c>
+      <c r="R57" t="s">
+        <v>86</v>
+      </c>
+      <c r="S57" t="s">
+        <v>86</v>
+      </c>
+      <c r="T57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+      <c r="K58" t="s">
+        <v>86</v>
+      </c>
+      <c r="L58" t="s">
+        <v>86</v>
+      </c>
+      <c r="M58" t="s">
+        <v>86</v>
+      </c>
+      <c r="N58" t="s">
+        <v>86</v>
+      </c>
+      <c r="O58" t="s">
+        <v>86</v>
+      </c>
+      <c r="P58" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>86</v>
+      </c>
+      <c r="R58" t="s">
+        <v>86</v>
+      </c>
+      <c r="S58" t="s">
+        <v>86</v>
+      </c>
+      <c r="T58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+      <c r="K59" t="s">
+        <v>86</v>
+      </c>
+      <c r="L59" t="s">
+        <v>86</v>
+      </c>
+      <c r="M59" t="s">
+        <v>86</v>
+      </c>
+      <c r="N59" t="s">
+        <v>86</v>
+      </c>
+      <c r="O59" t="s">
+        <v>86</v>
+      </c>
+      <c r="P59" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>86</v>
+      </c>
+      <c r="R59" t="s">
+        <v>86</v>
+      </c>
+      <c r="S59" t="s">
+        <v>86</v>
+      </c>
+      <c r="T59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+      <c r="K60" t="s">
+        <v>86</v>
+      </c>
+      <c r="L60" t="s">
+        <v>86</v>
+      </c>
+      <c r="M60" t="s">
+        <v>86</v>
+      </c>
+      <c r="N60" t="s">
+        <v>86</v>
+      </c>
+      <c r="O60" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>86</v>
+      </c>
+      <c r="R60" t="s">
+        <v>86</v>
+      </c>
+      <c r="S60" t="s">
+        <v>86</v>
+      </c>
+      <c r="T60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+      <c r="K61" t="s">
+        <v>86</v>
+      </c>
+      <c r="L61" t="s">
+        <v>86</v>
+      </c>
+      <c r="M61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>86</v>
+      </c>
+      <c r="R61" t="s">
+        <v>86</v>
+      </c>
+      <c r="S61" t="s">
+        <v>86</v>
+      </c>
+      <c r="T61" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
